--- a/medicine/Hématologie/Thrombose/Thrombose.xlsx
+++ b/medicine/Hématologie/Thrombose/Thrombose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thrombose est la formation d'un caillot (thrombus) dans une veine ou une artère obstruant la circulation du sang dans le système circulatoire.
 </t>
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pathogenèse
-Les principales causes de thrombose sont indiquées dans la triade de Virchow qui énumère thrombophilie, lésions des cellules endothéliales et altération de la circulation sanguine[1],[2]. D'une manière générale, le risque de thrombose augmente au cours de la vie, en fonction de facteurs liés au mode de vie tels que le tabagisme, l'alimentation et l'activité physique, la présence d'autres maladies telles que le cancer ou les maladies auto-immunes, tandis que les propriétés des plaquettes changent également chez les personnes vieillissantes, ce qui constitue également un facteur important[3].
-Hypercoagulabilité
-L'hypercoagulabilité, ou thrombophilie, est causée, par exemple, par des défauts génétiques ou des troubles auto-immuns. Des études récentes suggèrent que les leucocytes jouent un rôle clé dans le développement de la thrombose veineuse profonde en médiant de multiples actions prothrombotiques[4].
-Trouble de la circulation sanguine
-Les causes de l'altération du flux sanguin comprennent la stase du flux sanguin après une blessure ou la stase veineuse, qui peut survenir en cas d'insuffisance cardiaque, ou après des périodes prolongées de sédentarité pendant un long voyage en avion[5].
-Lésions des cellules endothéliales
-Tout processus inflammatoire tel qu'un traumatisme, une intervention chirurgicale ou une infection peut endommager la couche endothéliale de la paroi du vaisseau. Le mécanisme sous-jacent est l'effet du facteur tissulaire sur le système de coagulation sanguine. Des stimuli inflammatoires et autres (tels que l'hypercholestérolémie) peuvent entraîner des modifications de l'expression génique dans l'endothélium, conduisant à un état prothrombotique[6].
+          <t>Pathogenèse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales causes de thrombose sont indiquées dans la triade de Virchow qui énumère thrombophilie, lésions des cellules endothéliales et altération de la circulation sanguine,. D'une manière générale, le risque de thrombose augmente au cours de la vie, en fonction de facteurs liés au mode de vie tels que le tabagisme, l'alimentation et l'activité physique, la présence d'autres maladies telles que le cancer ou les maladies auto-immunes, tandis que les propriétés des plaquettes changent également chez les personnes vieillissantes, ce qui constitue également un facteur important.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thrombose</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thrombose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mécanisme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hypercoagulabilité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypercoagulabilité, ou thrombophilie, est causée, par exemple, par des défauts génétiques ou des troubles auto-immuns. Des études récentes suggèrent que les leucocytes jouent un rôle clé dans le développement de la thrombose veineuse profonde en médiant de multiples actions prothrombotiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thrombose</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thrombose</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mécanisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trouble de la circulation sanguine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les causes de l'altération du flux sanguin comprennent la stase du flux sanguin après une blessure ou la stase veineuse, qui peut survenir en cas d'insuffisance cardiaque, ou après des périodes prolongées de sédentarité pendant un long voyage en avion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thrombose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thrombose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mécanisme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lésions des cellules endothéliales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout processus inflammatoire tel qu'un traumatisme, une intervention chirurgicale ou une infection peut endommager la couche endothéliale de la paroi du vaisseau. Le mécanisme sous-jacent est l'effet du facteur tissulaire sur le système de coagulation sanguine. Des stimuli inflammatoires et autres (tels que l'hypercholestérolémie) peuvent entraîner des modifications de l'expression génique dans l'endothélium, conduisant à un état prothrombotique.
 </t>
         </is>
       </c>
